--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26903"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26911"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="433" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41AD6C9C-9EBF-4A85-B55D-7089EF59ADD0}"/>
+  <xr:revisionPtr revIDLastSave="661" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A8CFFB0-58BD-47F8-A846-DF0FD34CFA77}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRD_Document" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="Browse and upload" sheetId="4" r:id="rId4"/>
     <sheet name="DMS_API" sheetId="5" r:id="rId5"/>
     <sheet name="Invoice" sheetId="6" r:id="rId6"/>
+    <sheet name="Kodak Dealer Financing" sheetId="7" r:id="rId7"/>
+    <sheet name="Quiklyz" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="465">
   <si>
     <t>Test Module</t>
   </si>
@@ -1090,6 +1092,438 @@
   </si>
   <si>
     <t>The checker should viewed the status on "Approve"</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Dealer finance(TS1)</t>
+  </si>
+  <si>
+    <t>verify the user can view the list of anchor file in the operation console</t>
+  </si>
+  <si>
+    <t>user can click the operation console</t>
+  </si>
+  <si>
+    <t>User should viewed the list of anchor file in the operation console</t>
+  </si>
+  <si>
+    <t>verify the CRN  number link navigate to the invoice file details</t>
+  </si>
+  <si>
+    <t>click the CRN number</t>
+  </si>
+  <si>
+    <t>Navigated to the invoice file details</t>
+  </si>
+  <si>
+    <t>verify the processing details in the file details page</t>
+  </si>
+  <si>
+    <t>click on the events</t>
+  </si>
+  <si>
+    <t>It will show the events and process of the file</t>
+  </si>
+  <si>
+    <t>verify the user can download the file</t>
+  </si>
+  <si>
+    <t>user should click  the download "icon"</t>
+  </si>
+  <si>
+    <t>The file downloaded successfully and the file will be opened.</t>
+  </si>
+  <si>
+    <t>verify the initial level of validation is pass</t>
+  </si>
+  <si>
+    <t>Upload the file should not Empty in the SCF folder</t>
+  </si>
+  <si>
+    <t>It will passed the initial level validation</t>
+  </si>
+  <si>
+    <t>upload the File type should be xlsx/xls/txt/csv in the SCF folder</t>
+  </si>
+  <si>
+    <t>upload the File size should not exceed on 3Mb</t>
+  </si>
+  <si>
+    <t>The Anchor file was upload in the SCF folder</t>
+  </si>
+  <si>
+    <t>Anchor file is not readability and corruption</t>
+  </si>
+  <si>
+    <t>Anchor file does not contains Invalid special character in the file name</t>
+  </si>
+  <si>
+    <t>File name does not exceed above 150 character</t>
+  </si>
+  <si>
+    <t>verify the initial level of  validation is failed</t>
+  </si>
+  <si>
+    <t>upload the File type should be except xlsx/xls/txt/csv in the SCF folder</t>
+  </si>
+  <si>
+    <t>It will not passed the initial level validation</t>
+  </si>
+  <si>
+    <t>upload the File size  exceed on 3Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Anchor file not upload in the SCF folder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload the duplicate file name </t>
+  </si>
+  <si>
+    <t>The initial level validation was failed and remarks</t>
+  </si>
+  <si>
+    <t>Anchor file is  readability and corruption</t>
+  </si>
+  <si>
+    <t>Anchor file should contains Invalid special character in the file name</t>
+  </si>
+  <si>
+    <t>File name should  exceed above 150 character</t>
+  </si>
+  <si>
+    <t>The initial validation was failed</t>
+  </si>
+  <si>
+    <t>Verify whether the anchor file name is changed by mentioned format.</t>
+  </si>
+  <si>
+    <t>Change/edit the anchor file name as per the mentioned format.</t>
+  </si>
+  <si>
+    <t>File name should be changed as mentioned format.</t>
+  </si>
+  <si>
+    <t>Change/edit the anchor file name as any format.</t>
+  </si>
+  <si>
+    <t>File name should be changed as unprescribed format.</t>
+  </si>
+  <si>
+    <t>verify the user can view the specific  Anchor CNR details</t>
+  </si>
+  <si>
+    <t>click the "Anchor CNR" link in the recent file page</t>
+  </si>
+  <si>
+    <t>User should viewed the specific Anchor CNR details</t>
+  </si>
+  <si>
+    <t>verify the user can get the "File success" status</t>
+  </si>
+  <si>
+    <t>open the Anchor file and check the invoice file status is success</t>
+  </si>
+  <si>
+    <t>User should viewed 'file success' status with blank remarks.</t>
+  </si>
+  <si>
+    <t>verify the user get the "File failure" status</t>
+  </si>
+  <si>
+    <t>open the Anchor file and check the invoice file status is failure</t>
+  </si>
+  <si>
+    <t>user should viewed "file failure" status with reason in remarks</t>
+  </si>
+  <si>
+    <t>Verify hash validation passed if all the invoice file available in database.</t>
+  </si>
+  <si>
+    <t>Open the database and find whether the all invoice files  available in database.</t>
+  </si>
+  <si>
+    <t>The invoice files are available in the database and Hash validation should be passed.</t>
+  </si>
+  <si>
+    <t>Verify hash validation passed if all the invoice file available in database in the bunching logic</t>
+  </si>
+  <si>
+    <t>Grouping all the invoices which has same value for Anchor,dealer,product type and invoice due date.</t>
+  </si>
+  <si>
+    <t>Same invoices must be grouped and  requested as single request for Ti+.</t>
+  </si>
+  <si>
+    <t>Check  OPS can fetch the anchor files.</t>
+  </si>
+  <si>
+    <t>Fetch the anchor files from anchor SFTP or bank server.</t>
+  </si>
+  <si>
+    <t>OPS must be fetched the anchor files in the anchor SFTP or bank server</t>
+  </si>
+  <si>
+    <t>verify that the checksum is generated for each line in the anchor file and send it to credable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The  file is empty </t>
+  </si>
+  <si>
+    <t>The checksum was not generated in the anchor</t>
+  </si>
+  <si>
+    <t>The  file is not empty</t>
+  </si>
+  <si>
+    <t>The checksum was generated for each line in the anchor file and send it to the credable</t>
+  </si>
+  <si>
+    <t>verify the credable validate the invoices.</t>
+  </si>
+  <si>
+    <t>credable validate  the invoices file</t>
+  </si>
+  <si>
+    <t>The credable should  validated the invoices as success.</t>
+  </si>
+  <si>
+    <t>Verify the hash validate acknowledgement number is generate.</t>
+  </si>
+  <si>
+    <t>check the invoices is validated by hash validation.</t>
+  </si>
+  <si>
+    <t>Hash validation acknowledgement number should be generated.</t>
+  </si>
+  <si>
+    <t>Verify whether the 'intetity check' is generate</t>
+  </si>
+  <si>
+    <t>Check the some fields of invoice files are validated which is received from credable end.</t>
+  </si>
+  <si>
+    <t>The intetity check is generated in the credable end</t>
+  </si>
+  <si>
+    <t>The intetity check is not generated in the credable end</t>
+  </si>
+  <si>
+    <t>Verify the 'generated interim acknowledgement' is received.</t>
+  </si>
+  <si>
+    <t>Compare the invoice amount of received files and validation files from credable.</t>
+  </si>
+  <si>
+    <t>Interim acknowledgement should be generated.</t>
+  </si>
+  <si>
+    <t>Interim acknowledgement must not be generated.</t>
+  </si>
+  <si>
+    <t>Home page(TS1)</t>
+  </si>
+  <si>
+    <t>HP_01</t>
+  </si>
+  <si>
+    <t>Verify the user can Register the Quiklyz page</t>
+  </si>
+  <si>
+    <t>User should enter the valid credential to register the Quiklyz page</t>
+  </si>
+  <si>
+    <t>User should registered the Quiklyz page</t>
+  </si>
+  <si>
+    <t>HP_02</t>
+  </si>
+  <si>
+    <t>Verify the user can login the quiklyz page</t>
+  </si>
+  <si>
+    <t>User should enter the mobileno and otp</t>
+  </si>
+  <si>
+    <t>User should login the home page</t>
+  </si>
+  <si>
+    <t>HP_03</t>
+  </si>
+  <si>
+    <t>Verify the user can select the car in the Find cars module</t>
+  </si>
+  <si>
+    <t>user should select the car in the Find cars module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should selected the car </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP_04 </t>
+  </si>
+  <si>
+    <t>Verify the user can select the lease tenure and service package</t>
+  </si>
+  <si>
+    <t>User should select the lease tenure and service package option</t>
+  </si>
+  <si>
+    <t>User should selected the lease tenure and service packages</t>
+  </si>
+  <si>
+    <t>HP_05</t>
+  </si>
+  <si>
+    <t>verify  the user can    check the eligibility</t>
+  </si>
+  <si>
+    <t>user should enter the credential of personal information</t>
+  </si>
+  <si>
+    <t>user should checked the eligibility</t>
+  </si>
+  <si>
+    <t>HP_06</t>
+  </si>
+  <si>
+    <t>Check whether the  Report pull fetch in the user information</t>
+  </si>
+  <si>
+    <t>The API is to check the seeking employee status</t>
+  </si>
+  <si>
+    <t>The API was fetched the seeking employee status self employee/salaried</t>
+  </si>
+  <si>
+    <t>HP_07</t>
+  </si>
+  <si>
+    <t>check the API is fetch the user bank statement/salary slip</t>
+  </si>
+  <si>
+    <t>The API was fetched  the user bank statement/salary slip</t>
+  </si>
+  <si>
+    <t>HP_08</t>
+  </si>
+  <si>
+    <t>check the API is analytics the user information</t>
+  </si>
+  <si>
+    <t>The API was analysed  the user information</t>
+  </si>
+  <si>
+    <t>HP_09</t>
+  </si>
+  <si>
+    <t>verify the onboarding begins</t>
+  </si>
+  <si>
+    <t>To verify the user income</t>
+  </si>
+  <si>
+    <t>The user income was verified</t>
+  </si>
+  <si>
+    <t>HP_10</t>
+  </si>
+  <si>
+    <t>check whether the user bank statement and salary slip is uploaded</t>
+  </si>
+  <si>
+    <t>verified the user bank statement and salary slip is uploaded</t>
+  </si>
+  <si>
+    <t>HP_11</t>
+  </si>
+  <si>
+    <t>User's offline verification process</t>
+  </si>
+  <si>
+    <t>User's offline verification process completed successfully</t>
+  </si>
+  <si>
+    <t>HP_12</t>
+  </si>
+  <si>
+    <t>verify the company is fetch the user adhaar xml data from uidai</t>
+  </si>
+  <si>
+    <t>check the company is fetch customer adhaar xml data from uidai</t>
+  </si>
+  <si>
+    <t>The company was fetched customer adhaar xml data from uidai</t>
+  </si>
+  <si>
+    <t>HP_13</t>
+  </si>
+  <si>
+    <t>verify the Auditor can approve the video KYC</t>
+  </si>
+  <si>
+    <t>The Auditor is conduct the meeting of video KYC</t>
+  </si>
+  <si>
+    <t>The Auditor should approved the video KYC</t>
+  </si>
+  <si>
+    <t>HP_14</t>
+  </si>
+  <si>
+    <t>verify the Auditor is video kyc with the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The company is compare the customer details in Adhaar xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The company was compared the  customer details in Adhaar xml </t>
+  </si>
+  <si>
+    <t>HP_15</t>
+  </si>
+  <si>
+    <t>check the user location is capture</t>
+  </si>
+  <si>
+    <t>The user location was captured</t>
+  </si>
+  <si>
+    <t>HP_16</t>
+  </si>
+  <si>
+    <t>verify the company is E-Agreement with the user</t>
+  </si>
+  <si>
+    <t>check the company is E-Agreement  with the user</t>
+  </si>
+  <si>
+    <t>The company was E-Agreement with the user</t>
+  </si>
+  <si>
+    <t>HP_17</t>
+  </si>
+  <si>
+    <t>verify the user can pay the lease amount payment to the company</t>
+  </si>
+  <si>
+    <t>The user can pay the lease amount payment to the company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should paid the lease amount to the company </t>
+  </si>
+  <si>
+    <t>HP_18</t>
+  </si>
+  <si>
+    <t>verify the company is delivery the car to user</t>
+  </si>
+  <si>
+    <t>The  company is setup for lease account and delivery</t>
+  </si>
+  <si>
+    <t>The company was delivered car to the user</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1303,6 +1737,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1344,6 +1808,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2279,7 +2752,7 @@
       <c r="B9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="27" t="s">
         <v>135</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2294,7 +2767,7 @@
       <c r="B10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="7" t="s">
         <v>138</v>
       </c>
@@ -2550,13 +3023,13 @@
       <c r="B9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="29" t="s">
         <v>185</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="27" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2565,55 +3038,55 @@
       <c r="B10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" ht="53.25" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" ht="71.25" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" ht="77.25" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5" ht="84.75" customHeight="1">
       <c r="A15" s="5"/>
@@ -2635,13 +3108,13 @@
       <c r="B16" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="27" t="s">
         <v>196</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="27" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2650,44 +3123,44 @@
       <c r="B17" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" ht="71.25" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" ht="68.25" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" ht="67.5" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" ht="66" customHeight="1">
       <c r="A21" s="5"/>
@@ -2919,42 +3392,42 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="33" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" ht="78.75" customHeight="1">
       <c r="A6" s="5"/>
@@ -3081,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1ABB0CD-BCD7-4E44-868F-BC8552824887}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3118,7 +3591,7 @@
       <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="44" t="s">
         <v>288</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -3148,13 +3621,13 @@
       <c r="B4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="37" t="s">
         <v>294</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="29" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3163,11 +3636,11 @@
       <c r="B5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:5" ht="39" customHeight="1">
       <c r="A6" s="7"/>
@@ -3195,7 +3668,7 @@
       <c r="D7" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="44" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3221,13 +3694,13 @@
       <c r="B9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="35" t="s">
         <v>307</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="44" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3236,7 +3709,7 @@
       <c r="B10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="7" t="s">
         <v>310</v>
       </c>
@@ -3255,7 +3728,7 @@
       <c r="D11" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="29" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3268,7 +3741,7 @@
       <c r="D12" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:5" ht="81.75" customHeight="1">
       <c r="A13" s="7"/>
@@ -3307,4 +3780,778 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CEEB5E-ED1D-439D-87F4-F2EE6852147E}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="121.5">
+      <c r="A2" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="137.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="91.5">
+      <c r="B4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="121.5">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="106.5">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="137.25">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="106.5">
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="91.5">
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="137.25">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="106.5">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="137.25">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="91.5">
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.75">
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45.75">
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="137.25">
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="106.5">
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="121.5">
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="137.25">
+      <c r="B19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="121.5">
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="137.25">
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="137.25">
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="167.25">
+      <c r="B23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="198">
+      <c r="B24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="167.25">
+      <c r="B25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="183">
+      <c r="B26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="183">
+      <c r="C27" s="23"/>
+      <c r="D27" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="121.5">
+      <c r="B28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="152.25">
+      <c r="B29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="106.5">
+      <c r="B30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="121.5">
+      <c r="B31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="30.75">
+      <c r="B32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="30.75">
+      <c r="B33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B98EA9D-D3D4-41E1-8DAD-EE65EA6F3BE0}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45.75">
+      <c r="A2" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.75">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45.75">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45.75">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45.75">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45.75">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45.75">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.75">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45.75">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45.75">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45.75">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30.75">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45.75">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30.75">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30.75">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45.75">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45.75">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C15:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26911"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="661" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A8CFFB0-58BD-47F8-A846-DF0FD34CFA77}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27735" windowHeight="12120" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BRD_Document" sheetId="1" r:id="rId1"/>
@@ -17,20 +16,7 @@
     <sheet name="Kodak Dealer Financing" sheetId="7" r:id="rId7"/>
     <sheet name="Quiklyz" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -417,6 +403,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>verify the  display  status on product and application in the net banking end</t>
@@ -426,6 +413,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  </t>
@@ -923,6 +911,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>verify the Maker can Login</t>
@@ -932,6 +921,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -961,6 +951,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -970,6 +961,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Maker should upload a new file</t>
@@ -987,6 +979,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                      </t>
@@ -996,6 +989,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> verify the maker can upload the invalid file format</t>
@@ -1037,6 +1031,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>The Checker should approve</t>
@@ -1046,6 +1041,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1055,6 +1051,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">the file </t>
@@ -1388,13 +1385,13 @@
     <t>HP_06</t>
   </si>
   <si>
-    <t>Check whether the  Report pull fetch in the user information</t>
+    <t>Check whether the  API pull soft scrub(Experian smart match) fetch in the user information</t>
   </si>
   <si>
     <t>The API is to check the seeking employee status</t>
   </si>
   <si>
-    <t>The API was fetched the seeking employee status self employee/salaried</t>
+    <t>The API is fetched the seeking employee status self employee/salaried</t>
   </si>
   <si>
     <t>HP_07</t>
@@ -1403,7 +1400,7 @@
     <t>check the API is fetch the user bank statement/salary slip</t>
   </si>
   <si>
-    <t>The API was fetched  the user bank statement/salary slip</t>
+    <t>The API is fetched  the user bank statement/salary slip</t>
   </si>
   <si>
     <t>HP_08</t>
@@ -1412,13 +1409,13 @@
     <t>check the API is analytics the user information</t>
   </si>
   <si>
-    <t>The API was analysed  the user information</t>
+    <t>The API is analysed  the user information</t>
   </si>
   <si>
     <t>HP_09</t>
   </si>
   <si>
-    <t>verify the onboarding begins</t>
+    <t xml:space="preserve">verify the onboarding begins </t>
   </si>
   <si>
     <t>To verify the user income</t>
@@ -1448,13 +1445,13 @@
     <t>HP_12</t>
   </si>
   <si>
-    <t>verify the company is fetch the user adhaar xml data from uidai</t>
-  </si>
-  <si>
-    <t>check the company is fetch customer adhaar xml data from uidai</t>
-  </si>
-  <si>
-    <t>The company was fetched customer adhaar xml data from uidai</t>
+    <t>verify that fetch the user adhaar xml data from uidai</t>
+  </si>
+  <si>
+    <t>fetch user adhaar xml data from uidai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fetched user adhaar xml data from uidai</t>
   </si>
   <si>
     <t>HP_13</t>
@@ -1475,10 +1472,10 @@
     <t>verify the Auditor is video kyc with the user</t>
   </si>
   <si>
-    <t xml:space="preserve">The company is compare the customer details in Adhaar xml </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The company was compared the  customer details in Adhaar xml </t>
+    <t xml:space="preserve">compare the user details in Adhaar xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">compared the  user details in Adhaar xml </t>
   </si>
   <si>
     <t>HP_15</t>
@@ -1493,10 +1490,10 @@
     <t>HP_16</t>
   </si>
   <si>
-    <t>verify the company is E-Agreement with the user</t>
-  </si>
-  <si>
-    <t>check the company is E-Agreement  with the user</t>
+    <t>verify the Auditor is E-Agreement with the user</t>
+  </si>
+  <si>
+    <t>check the Auditor is E-Agreement  with the user</t>
   </si>
   <si>
     <t>The company was E-Agreement with the user</t>
@@ -1505,49 +1502,43 @@
     <t>HP_17</t>
   </si>
   <si>
-    <t>verify the user can pay the lease amount payment to the company</t>
-  </si>
-  <si>
-    <t>The user can pay the lease amount payment to the company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user should paid the lease amount to the company </t>
+    <t>verify the user can pay the lease amount payment to the  online payment</t>
+  </si>
+  <si>
+    <t>The user can pay the lease amount payment to the online payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should paid the lease amount to the online payment </t>
   </si>
   <si>
     <t>HP_18</t>
   </si>
   <si>
-    <t>verify the company is delivery the car to user</t>
-  </si>
-  <si>
-    <t>The  company is setup for lease account and delivery</t>
-  </si>
-  <si>
-    <t>The company was delivered car to the user</t>
+    <t>verify that delivery the car to user</t>
+  </si>
+  <si>
+    <t>The  setup for lease account and delivery</t>
+  </si>
+  <si>
+    <t>The delivered car to the user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1567,16 +1558,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1589,19 +1585,355 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1645,9 +1977,7 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1658,7 +1988,9 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1687,152 +2019,423 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1881,7 +2484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1914,26 +2517,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1966,23 +2552,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2124,33 +2693,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="18.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="27.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2167,705 +2731,709 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="79.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="79.5" customHeight="1" spans="1:5">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="71.25" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" ht="71.25" customHeight="1" spans="1:5">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="72" customHeight="1" spans="1:5">
+      <c r="A4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="142.5" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="142.5" customHeight="1" spans="1:5">
+      <c r="A5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="52.5" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+    <row r="6" ht="52.5" customHeight="1" spans="1:5">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="73.5" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+    <row r="7" ht="73.5" customHeight="1" spans="1:5">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+    <row r="8" ht="75" customHeight="1" spans="1:5">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="75.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+    <row r="9" ht="75.75" customHeight="1" spans="1:5">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="83.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="83.25" customHeight="1" spans="1:5">
+      <c r="A10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="111" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="11" ht="111" customHeight="1" spans="1:5">
+      <c r="A11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="38" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="77.25" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+    <row r="12" ht="77.25" customHeight="1" spans="1:5">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="93.75" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+    <row r="13" ht="93.75" customHeight="1" spans="1:5">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="89.25" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+    <row r="14" ht="89.25" customHeight="1" spans="1:5">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="98.25" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+    <row r="15" ht="98.25" customHeight="1" spans="1:5">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="87" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+    <row r="16" ht="87" customHeight="1" spans="1:5">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="38" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E88857-082F-441B-B005-5E8CD04B7644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="E5" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="27.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="69.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="69.75" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="84.75" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" ht="84.75" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="107.25" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" ht="107.25" customHeight="1" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="99.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" ht="99.75" customHeight="1" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="73.5" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" ht="73.5" customHeight="1" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="71.25" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="71.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="162.75" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" ht="162.75" customHeight="1" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="75" customHeight="1">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="75" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="93.75" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" ht="93.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="110.25" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
+    <row r="11" ht="110.25" customHeight="1" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="20" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9972DD07-B7AF-4566-870A-ABD41B58A052}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="21.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="28.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="24.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="23.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="84.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="84.75" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="93.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="93.75" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="114.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" ht="114.75" customHeight="1" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="61.5" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" ht="61.5" customHeight="1" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="90.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" ht="90.75" customHeight="1" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="106.5" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" ht="106.5" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="181.5" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" ht="181.5" customHeight="1" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="145.5" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" ht="145.5" customHeight="1" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="144" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" ht="144" customHeight="1" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="76.5">
-      <c r="A11" s="7" t="s">
+    <row r="11" ht="60" spans="1:5">
+      <c r="A11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="123.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+    <row r="12" ht="123.75" customHeight="1" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="136.5" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+    <row r="13" ht="136.5" customHeight="1" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="109.5" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" ht="109.5" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="150.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
+    <row r="15" ht="150.75" customHeight="1" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="138" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
+    <row r="16" ht="138" customHeight="1" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="20" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2874,27 +3442,29 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F69411-CA6C-4FBA-B1D5-43E9C7C401A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="21.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2911,470 +3481,472 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="103.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="103.5" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="127.5" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" ht="127.5" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="184.5" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" ht="184.5" customHeight="1" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="205.5" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" ht="205.5" customHeight="1" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="127.5" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" ht="127.5" customHeight="1" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="89.25" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" ht="89.25" customHeight="1" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" ht="76.5" customHeight="1" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" ht="66.75" customHeight="1" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="64.5" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" ht="64.5" customHeight="1" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="32"/>
-    </row>
-    <row r="11" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" ht="53.25" customHeight="1" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:5" ht="71.25" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" ht="71.25" customHeight="1" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="1:5" ht="77.25" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" ht="77.25" customHeight="1" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" ht="62.25" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" ht="62.25" customHeight="1" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" ht="84.75" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10" t="s">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" ht="84.75" customHeight="1" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="70.5" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" ht="70.5" customHeight="1" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="64.5" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+    <row r="17" ht="64.5" customHeight="1" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="1:5" ht="71.25" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" ht="71.25" customHeight="1" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="1:5" ht="68.25" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" ht="68.25" customHeight="1" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" ht="67.5" customHeight="1" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" ht="66" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" ht="66" customHeight="1" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="93" customHeight="1">
-      <c r="A22" s="5" t="s">
+    <row r="22" ht="93" customHeight="1" spans="1:5">
+      <c r="A22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="138" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
+    <row r="23" ht="138" customHeight="1" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="201.75" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+    <row r="24" ht="201.75" customHeight="1" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="87" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
+    <row r="25" ht="87" customHeight="1" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="72.75" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
+    <row r="26" ht="72.75" customHeight="1" spans="1:5">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="73.5" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
+    <row r="27" ht="73.5" customHeight="1" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="69.75" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
+    <row r="28" ht="69.75" customHeight="1" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="84.75" customHeight="1">
-      <c r="A29" s="5" t="s">
+    <row r="29" ht="84.75" customHeight="1" spans="1:5">
+      <c r="A29" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="146.25" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
+    <row r="30" ht="146.25" customHeight="1" spans="1:5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="122.25" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
+    <row r="31" ht="122.25" customHeight="1" spans="1:5">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="105" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
+    <row r="32" ht="105" customHeight="1" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="4" t="s">
         <v>252</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C16:C20"/>
     <mergeCell ref="E9:E14"/>
-    <mergeCell ref="C16:C20"/>
     <mergeCell ref="E16:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485B4229-E418-45F8-9BE7-E605F4C61EE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3392,149 +3964,149 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="33"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="33"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="34"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="33"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" spans="1:5" ht="78.75" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="78.75" customHeight="1" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="78" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" ht="78" customHeight="1" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="126" customHeight="1">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="126" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="89.25" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" ht="89.25" customHeight="1" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="92.25" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" ht="92.25" customHeight="1" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="85.5" customHeight="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" ht="85.5" customHeight="1" spans="1:5">
+      <c r="A11" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75.75" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" ht="75.75" customHeight="1" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3547,27 +4119,29 @@
     <mergeCell ref="E2:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1ABB0CD-BCD7-4E44-868F-BC8552824887}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="C5" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="64.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="47.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="36.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33">
+    <row r="1" ht="30" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3584,232 +4158,234 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="30" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="20" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="62.25" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" ht="62.25" customHeight="1" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" ht="32.25" customHeight="1" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" ht="45" customHeight="1" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" spans="1:5" ht="39" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="20" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" ht="42" customHeight="1" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="18" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" ht="36.75" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" ht="42.75" customHeight="1" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="18" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="56.25" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" ht="56.25" customHeight="1" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="59.25" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="15" t="s">
+    <row r="11" ht="59.25" customHeight="1" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="24" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="56.25" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="15" t="s">
+    <row r="12" ht="56.25" customHeight="1" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" spans="1:5" ht="81.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="15" t="s">
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" ht="81.75" customHeight="1" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="20" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="81.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" ht="81.75" customHeight="1" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="20" t="s">
         <v>320</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C4:C5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E11:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CEEB5E-ED1D-439D-87F4-F2EE6852147E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3819,730 +4395,732 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="121.5">
-      <c r="A2" s="19" t="s">
+    <row r="2" ht="45" spans="1:5">
+      <c r="A2" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="10" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="137.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20" t="s">
+    <row r="3" ht="45" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="91.5">
-      <c r="B4" s="22" t="s">
+    <row r="4" ht="45" spans="2:5">
+      <c r="B4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="121.5">
+    <row r="5" ht="45" spans="2:5">
       <c r="B5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="12" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="106.5">
+    <row r="6" ht="45" spans="2:5">
       <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="137.25">
+    <row r="7" ht="60" spans="2:5">
       <c r="B7" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="106.5">
+    <row r="8" ht="45" spans="2:5">
       <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="12" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="91.5">
+    <row r="9" ht="45" spans="2:5">
       <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="137.25">
+    <row r="10" ht="60" spans="2:5">
       <c r="B10" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="106.5">
+    <row r="11" ht="45" spans="2:5">
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="137.25">
+    <row r="12" ht="60" spans="2:5">
       <c r="B12" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="91.5">
+    <row r="13" ht="30" spans="2:5">
       <c r="B13" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="12" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30.75">
+    <row r="14" ht="30" spans="2:5">
       <c r="B14" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45.75">
+    <row r="15" ht="45" spans="2:5">
       <c r="B15" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="137.25">
+    <row r="16" ht="60" spans="2:5">
       <c r="B16" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="106.5">
+    <row r="17" ht="45" spans="2:5">
       <c r="B17" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="12" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="121.5">
+    <row r="18" ht="60" spans="2:5">
       <c r="B18" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="12" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="137.25">
+    <row r="19" ht="45" spans="2:5">
       <c r="B19" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="24" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="12" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="121.5">
+    <row r="20" ht="45" spans="2:5">
       <c r="B20" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="12" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="137.25">
+    <row r="21" ht="45" spans="2:5">
       <c r="B21" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="12" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="137.25">
+    <row r="22" ht="45" spans="2:5">
       <c r="B22" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="15" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="167.25">
+    <row r="23" ht="60" spans="2:5">
       <c r="B23" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="15" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="198">
+    <row r="24" ht="90" spans="2:5">
       <c r="B24" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="167.25">
+    <row r="25" ht="45" spans="2:5">
       <c r="B25" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="183">
+    <row r="26" ht="60" spans="2:5">
       <c r="B26" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="12" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="183">
-      <c r="C27" s="23"/>
-      <c r="D27" s="24" t="s">
+    <row r="27" ht="60" spans="3:5">
+      <c r="C27" s="13"/>
+      <c r="D27" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="12" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="121.5">
+    <row r="28" ht="45" spans="2:5">
       <c r="B28" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="12" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="152.25">
+    <row r="29" ht="60" spans="2:5">
       <c r="B29" t="s">
         <v>233</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="12" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="106.5">
+    <row r="30" ht="45" spans="2:5">
       <c r="B30" t="s">
         <v>238</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="121.5">
+    <row r="31" ht="45" spans="2:5">
       <c r="B31" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="22" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="12" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="30.75">
+    <row r="32" ht="45" spans="2:5">
       <c r="B32" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="30.75">
+    <row r="33" ht="45" spans="2:5">
       <c r="B33" t="s">
         <v>250</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="22" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="12" t="s">
         <v>396</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B98EA9D-D3D4-41E1-8DAD-EE65EA6F3BE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="17.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="26.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45.75">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="45" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" ht="30" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45.75">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" ht="45" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45.75">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" ht="45" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45.75">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" ht="45" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45.75">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" ht="45" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45.75">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" ht="45" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.75">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" ht="30" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" ht="30.75" customHeight="1" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45.75">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" ht="45" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45.75">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" ht="45" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45.75">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" ht="45" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30.75">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" ht="30" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45.75">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+    <row r="15" ht="30" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30.75">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" ht="30" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30.75">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+    <row r="17" ht="30" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45.75">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+    <row r="18" ht="60" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45.75">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+    <row r="19" ht="30" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="8" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4553,5 +5131,6 @@
     <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>